--- a/covid/wide_join_dates_and_cases.xlsx
+++ b/covid/wide_join_dates_and_cases.xlsx
@@ -1,24 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f55ed08a9185297/Documents/GitHub/dbk_datadesk/covid/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_15AEFEC48F79A89360642C52EA7BD272FA4618F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85F5608A-9589-4A17-81BF-96D6949BBDC2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>what_happened</t>
+  </si>
+  <si>
+    <t>faculty_self_reported</t>
+  </si>
+  <si>
+    <t>staff_self_reported</t>
+  </si>
+  <si>
+    <t>student_self_reported</t>
+  </si>
+  <si>
+    <t>staff_uhc_reported</t>
+  </si>
+  <si>
+    <t>student_uhc_reported</t>
+  </si>
+  <si>
+    <t>faculty_uhc_reported</t>
+  </si>
+  <si>
+    <t>no masks in classrooms for fall semester, still required in uhc</t>
+  </si>
+  <si>
+    <t>umd stops publishing covid dashboard</t>
+  </si>
+  <si>
+    <t>perillo said at an rha meeting masks may be optional in fall 2022 sem</t>
+  </si>
+  <si>
+    <t>testing requirement for unvaccinated removed starting march 28</t>
+  </si>
+  <si>
+    <t>booster shot required,  negative covid test to return to campus, kn95s required in classrooms and masks must be worn at all times indoors, everyone send i am 4maryland pledge</t>
+  </si>
+  <si>
+    <t>umd cancels winter commencement bc of covid spike</t>
+  </si>
+  <si>
+    <t>testing guidance + addtl masking guidance</t>
+  </si>
+  <si>
+    <t>fully vaccinated don't have to wear masks or quaratine or get tested regularly</t>
+  </si>
+  <si>
+    <t>USM instituted COVID-19 testing mandate</t>
+  </si>
+  <si>
+    <t>umd lift mask mandate in dining halls, residence halls and athletic events. still required in classrooms, public transportation and patient care areas</t>
+  </si>
+  <si>
+    <t>reinstated indoor mask mandate for everyone</t>
+  </si>
+  <si>
+    <t>UMD outlines tentative "return to normal" for fall, dorms at full capacity, etc</t>
+  </si>
+  <si>
+    <t>UMD classes online, students asked to sequest for a week</t>
+  </si>
+  <si>
+    <t>UMD limits all student gatherings to 5 people after spike</t>
+  </si>
+  <si>
+    <t>UMD announces normal spring break for 2021, 25% of classes in person</t>
+  </si>
+  <si>
+    <t>UMD moves undergraduate classes online after Nov 16</t>
+  </si>
+  <si>
+    <t>UMD closes isolation and quarantine housing before semester ends</t>
+  </si>
+  <si>
+    <t>UMD moves all classes online after Thanksgiving break</t>
+  </si>
+  <si>
+    <t>Students in denton hall advised to restrict activity</t>
+  </si>
+  <si>
+    <t>University holds "mass testing" for Sept 15-18, requires all students returning to campus to test</t>
+  </si>
+  <si>
+    <t>Several UMD students in Cumberland move to quarantine</t>
+  </si>
+  <si>
+    <t>university says it will announce "early contact identification" steps</t>
+  </si>
+  <si>
+    <t>UMD officially launches campus dashboard</t>
+  </si>
+  <si>
+    <t>UMD delays undergraduate in-person instruction until Sept. 14, 2020</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss\ \U\T\C"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +174,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -113,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -145,9 +260,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,6 +312,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -354,59 +505,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H713"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>what_happened</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>faculty_self_reported</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>staff_self_reported</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>student_self_reported</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>staff_uhc_reported</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>student_uhc_reported</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>faculty_uhc_reported</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44834</v>
       </c>
@@ -429,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>44833</v>
       </c>
@@ -452,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>44832</v>
       </c>
@@ -475,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>44831</v>
       </c>
@@ -498,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>44830</v>
       </c>
@@ -521,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>44829</v>
       </c>
@@ -544,7 +682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>44828</v>
       </c>
@@ -567,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>44827</v>
       </c>
@@ -590,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>44826</v>
       </c>
@@ -613,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44825</v>
       </c>
@@ -636,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>44824</v>
       </c>
@@ -659,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>44823</v>
       </c>
@@ -682,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>44822</v>
       </c>
@@ -705,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>44821</v>
       </c>
@@ -728,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>44820</v>
       </c>
@@ -751,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>44819</v>
       </c>
@@ -774,7 +912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>44818</v>
       </c>
@@ -797,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>44817</v>
       </c>
@@ -820,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>44816</v>
       </c>
@@ -843,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>44815</v>
       </c>
@@ -866,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>44814</v>
       </c>
@@ -889,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>44813</v>
       </c>
@@ -912,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>44812</v>
       </c>
@@ -935,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>44811</v>
       </c>
@@ -958,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>44810</v>
       </c>
@@ -981,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>44809</v>
       </c>
@@ -1004,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>44808</v>
       </c>
@@ -1027,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>44807</v>
       </c>
@@ -1050,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>44806</v>
       </c>
@@ -1073,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>44805</v>
       </c>
@@ -1096,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>44804</v>
       </c>
@@ -1119,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>44803</v>
       </c>
@@ -1142,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>44802</v>
       </c>
@@ -1165,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>44801</v>
       </c>
@@ -1188,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>44800</v>
       </c>
@@ -1211,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>44799</v>
       </c>
@@ -1234,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>44798</v>
       </c>
@@ -1257,14 +1395,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>44797</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>no masks in classrooms for fall semester, still required in uhc</t>
-        </is>
+      <c r="B39" t="s">
+        <v>8</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1285,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>44796</v>
       </c>
@@ -1308,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>44795</v>
       </c>
@@ -1331,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>44794</v>
       </c>
@@ -1354,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>44793</v>
       </c>
@@ -1377,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>44792</v>
       </c>
@@ -1400,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44791</v>
       </c>
@@ -1423,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>44790</v>
       </c>
@@ -1446,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>44789</v>
       </c>
@@ -1469,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>44788</v>
       </c>
@@ -1492,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>44787</v>
       </c>
@@ -1515,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>44786</v>
       </c>
@@ -1538,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>44785</v>
       </c>
@@ -1561,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>44784</v>
       </c>
@@ -1584,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>44783</v>
       </c>
@@ -1607,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>44782</v>
       </c>
@@ -1630,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>44781</v>
       </c>
@@ -1653,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>44780</v>
       </c>
@@ -1676,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>44779</v>
       </c>
@@ -1699,7 +1835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>44778</v>
       </c>
@@ -1722,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>44777</v>
       </c>
@@ -1745,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>44776</v>
       </c>
@@ -1768,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>44775</v>
       </c>
@@ -1791,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>44774</v>
       </c>
@@ -1814,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>44773</v>
       </c>
@@ -1837,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>44772</v>
       </c>
@@ -1860,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>44771</v>
       </c>
@@ -1883,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>44770</v>
       </c>
@@ -1906,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>44769</v>
       </c>
@@ -1929,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>44768</v>
       </c>
@@ -1952,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>44767</v>
       </c>
@@ -1975,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>44766</v>
       </c>
@@ -1998,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>44765</v>
       </c>
@@ -2021,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>44764</v>
       </c>
@@ -2044,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>44763</v>
       </c>
@@ -2067,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>44762</v>
       </c>
@@ -2090,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>44761</v>
       </c>
@@ -2113,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>44760</v>
       </c>
@@ -2136,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>44759</v>
       </c>
@@ -2159,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>44758</v>
       </c>
@@ -2182,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>44757</v>
       </c>
@@ -2205,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>44756</v>
       </c>
@@ -2228,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>44755</v>
       </c>
@@ -2251,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>44754</v>
       </c>
@@ -2274,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>44753</v>
       </c>
@@ -2297,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>44752</v>
       </c>
@@ -2320,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>44751</v>
       </c>
@@ -2343,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>44750</v>
       </c>
@@ -2366,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>44749</v>
       </c>
@@ -2389,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>44748</v>
       </c>
@@ -2412,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>44747</v>
       </c>
@@ -2435,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>44746</v>
       </c>
@@ -2458,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>44745</v>
       </c>
@@ -2481,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>44744</v>
       </c>
@@ -2504,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>44743</v>
       </c>
@@ -2527,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>44742</v>
       </c>
@@ -2550,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>44741</v>
       </c>
@@ -2573,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>44740</v>
       </c>
@@ -2596,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>44739</v>
       </c>
@@ -2619,7 +2755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>44738</v>
       </c>
@@ -2642,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>44737</v>
       </c>
@@ -2665,7 +2801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>44736</v>
       </c>
@@ -2688,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>44735</v>
       </c>
@@ -2711,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>44734</v>
       </c>
@@ -2734,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>44733</v>
       </c>
@@ -2757,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>44732</v>
       </c>
@@ -2780,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>44731</v>
       </c>
@@ -2803,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>44730</v>
       </c>
@@ -2826,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>44729</v>
       </c>
@@ -2849,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>44728</v>
       </c>
@@ -2872,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>44727</v>
       </c>
@@ -2895,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>44726</v>
       </c>
@@ -2918,7 +3054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>44725</v>
       </c>
@@ -2941,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>44724</v>
       </c>
@@ -2964,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>44723</v>
       </c>
@@ -2987,7 +3123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>44722</v>
       </c>
@@ -3010,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>44721</v>
       </c>
@@ -3033,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>44720</v>
       </c>
@@ -3056,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>44719</v>
       </c>
@@ -3079,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>44718</v>
       </c>
@@ -3102,7 +3238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>44717</v>
       </c>
@@ -3125,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>44716</v>
       </c>
@@ -3148,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>44715</v>
       </c>
@@ -3171,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>44714</v>
       </c>
@@ -3194,14 +3330,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>44713</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>umd stops publishing covid dashboard</t>
-        </is>
+      <c r="B123" t="s">
+        <v>9</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -3222,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>44712</v>
       </c>
@@ -3245,7 +3379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>44711</v>
       </c>
@@ -3268,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>44710</v>
       </c>
@@ -3291,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>44709</v>
       </c>
@@ -3314,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>44708</v>
       </c>
@@ -3337,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>44707</v>
       </c>
@@ -3360,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>44706</v>
       </c>
@@ -3383,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>44705</v>
       </c>
@@ -3406,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>44704</v>
       </c>
@@ -3429,7 +3563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>44703</v>
       </c>
@@ -3452,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>44702</v>
       </c>
@@ -3475,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>44701</v>
       </c>
@@ -3498,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>44700</v>
       </c>
@@ -3521,7 +3655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>44699</v>
       </c>
@@ -3544,7 +3678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>44698</v>
       </c>
@@ -3567,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>44697</v>
       </c>
@@ -3590,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>44696</v>
       </c>
@@ -3613,7 +3747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>44695</v>
       </c>
@@ -3636,7 +3770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>44694</v>
       </c>
@@ -3659,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>44693</v>
       </c>
@@ -3682,7 +3816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>44692</v>
       </c>
@@ -3705,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>44691</v>
       </c>
@@ -3728,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>44690</v>
       </c>
@@ -3751,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>44689</v>
       </c>
@@ -3774,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>44688</v>
       </c>
@@ -3797,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>44687</v>
       </c>
@@ -3820,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>44686</v>
       </c>
@@ -3843,7 +3977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>44685</v>
       </c>
@@ -3866,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>44684</v>
       </c>
@@ -3889,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>44683</v>
       </c>
@@ -3912,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>44682</v>
       </c>
@@ -3935,7 +4069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>44681</v>
       </c>
@@ -3958,7 +4092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>44680</v>
       </c>
@@ -3981,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>44679</v>
       </c>
@@ -4004,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>44678</v>
       </c>
@@ -4027,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>44677</v>
       </c>
@@ -4050,7 +4184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>44676</v>
       </c>
@@ -4073,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>44675</v>
       </c>
@@ -4096,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>44674</v>
       </c>
@@ -4119,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>44673</v>
       </c>
@@ -4142,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>44672</v>
       </c>
@@ -4165,7 +4299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>44671</v>
       </c>
@@ -4188,7 +4322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>44670</v>
       </c>
@@ -4211,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>44669</v>
       </c>
@@ -4234,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>44668</v>
       </c>
@@ -4257,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>44667</v>
       </c>
@@ -4280,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>44666</v>
       </c>
@@ -4303,7 +4437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>44665</v>
       </c>
@@ -4326,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>44664</v>
       </c>
@@ -4349,7 +4483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>44663</v>
       </c>
@@ -4372,7 +4506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>44662</v>
       </c>
@@ -4395,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>44661</v>
       </c>
@@ -4418,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>44660</v>
       </c>
@@ -4441,7 +4575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>44659</v>
       </c>
@@ -4464,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>44658</v>
       </c>
@@ -4487,14 +4621,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>44657</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>perillo said at an rha meeting masks may be optional in fall 2022 sem</t>
-        </is>
+      <c r="B179" t="s">
+        <v>10</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4515,7 +4647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>44656</v>
       </c>
@@ -4538,7 +4670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>44655</v>
       </c>
@@ -4561,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>44654</v>
       </c>
@@ -4584,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>44653</v>
       </c>
@@ -4607,7 +4739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>44652</v>
       </c>
@@ -4630,7 +4762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>44651</v>
       </c>
@@ -4653,7 +4785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>44650</v>
       </c>
@@ -4676,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>44648</v>
       </c>
@@ -4699,7 +4831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>44647</v>
       </c>
@@ -4722,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>44646</v>
       </c>
@@ -4745,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>44644</v>
       </c>
@@ -4768,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>44643</v>
       </c>
@@ -4791,7 +4923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>44642</v>
       </c>
@@ -4814,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>44641</v>
       </c>
@@ -4837,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>44640</v>
       </c>
@@ -4860,7 +4992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>44638</v>
       </c>
@@ -4883,14 +5015,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>44637</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>testing requirement for unvaccinated removed starting march 28</t>
-        </is>
+      <c r="B196" t="s">
+        <v>11</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -4911,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>44636</v>
       </c>
@@ -4934,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>44635</v>
       </c>
@@ -4957,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="2">
         <v>44634</v>
       </c>
@@ -4980,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="2">
         <v>44632</v>
       </c>
@@ -5003,7 +5133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="2">
         <v>44630</v>
       </c>
@@ -5026,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="2">
         <v>44629</v>
       </c>
@@ -5049,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="2">
         <v>44628</v>
       </c>
@@ -5072,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="2">
         <v>44623</v>
       </c>
@@ -5095,7 +5225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="2">
         <v>44621</v>
       </c>
@@ -5118,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="2">
         <v>44620</v>
       </c>
@@ -5141,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="2">
         <v>44618</v>
       </c>
@@ -5164,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>44616</v>
       </c>
@@ -5187,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="2">
         <v>44614</v>
       </c>
@@ -5210,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="2">
         <v>44610</v>
       </c>
@@ -5233,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="2">
         <v>44608</v>
       </c>
@@ -5256,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="2">
         <v>44607</v>
       </c>
@@ -5279,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="2">
         <v>44604</v>
       </c>
@@ -5302,7 +5432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="2">
         <v>44603</v>
       </c>
@@ -5325,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="2">
         <v>44602</v>
       </c>
@@ -5348,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="2">
         <v>44601</v>
       </c>
@@ -5371,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="2">
         <v>44600</v>
       </c>
@@ -5394,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="2">
         <v>44599</v>
       </c>
@@ -5417,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="2">
         <v>44597</v>
       </c>
@@ -5440,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="2">
         <v>44596</v>
       </c>
@@ -5463,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="2">
         <v>44595</v>
       </c>
@@ -5486,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="2">
         <v>44594</v>
       </c>
@@ -5509,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="2">
         <v>44593</v>
       </c>
@@ -5532,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2">
         <v>44592</v>
       </c>
@@ -5555,7 +5685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="2">
         <v>44591</v>
       </c>
@@ -5578,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>44590</v>
       </c>
@@ -5601,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="2">
         <v>44588</v>
       </c>
@@ -5624,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="2">
         <v>44587</v>
       </c>
@@ -5647,7 +5777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="2">
         <v>44586</v>
       </c>
@@ -5670,14 +5800,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="2">
         <v>44585</v>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>booster shot required,  negative covid test to return to campus, kn95s required in classrooms and masks must be worn at all times indoors, everyone send i am 4maryland pledge</t>
-        </is>
+      <c r="B230" t="s">
+        <v>12</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -5698,7 +5826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="2">
         <v>44584</v>
       </c>
@@ -5721,7 +5849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="2">
         <v>44583</v>
       </c>
@@ -5744,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="2">
         <v>44582</v>
       </c>
@@ -5767,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="2">
         <v>44581</v>
       </c>
@@ -5790,7 +5918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>44580</v>
       </c>
@@ -5813,7 +5941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="2">
         <v>44579</v>
       </c>
@@ -5836,7 +5964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="2">
         <v>44578</v>
       </c>
@@ -5859,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="2">
         <v>44577</v>
       </c>
@@ -5882,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="2">
         <v>44576</v>
       </c>
@@ -5905,7 +6033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>44575</v>
       </c>
@@ -5928,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="2">
         <v>44574</v>
       </c>
@@ -5951,7 +6079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="2">
         <v>44573</v>
       </c>
@@ -5974,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="2">
         <v>44572</v>
       </c>
@@ -5997,7 +6125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="2">
         <v>44571</v>
       </c>
@@ -6020,7 +6148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="2">
         <v>44570</v>
       </c>
@@ -6043,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="2">
         <v>44569</v>
       </c>
@@ -6066,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="2">
         <v>44568</v>
       </c>
@@ -6089,7 +6217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="2">
         <v>44567</v>
       </c>
@@ -6112,7 +6240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>44566</v>
       </c>
@@ -6135,7 +6263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="2">
         <v>44565</v>
       </c>
@@ -6158,7 +6286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="2">
         <v>44564</v>
       </c>
@@ -6181,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="2">
         <v>44563</v>
       </c>
@@ -6204,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="2">
         <v>44562</v>
       </c>
@@ -6227,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="2">
         <v>44561</v>
       </c>
@@ -6250,7 +6378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="2">
         <v>44560</v>
       </c>
@@ -6273,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="2">
         <v>44559</v>
       </c>
@@ -6296,7 +6424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="2">
         <v>44558</v>
       </c>
@@ -6319,7 +6447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="2">
         <v>44557</v>
       </c>
@@ -6342,7 +6470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="2">
         <v>44556</v>
       </c>
@@ -6365,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="2">
         <v>44555</v>
       </c>
@@ -6388,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="2">
         <v>44554</v>
       </c>
@@ -6411,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="2">
         <v>44553</v>
       </c>
@@ -6434,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="2">
         <v>44552</v>
       </c>
@@ -6457,7 +6585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="2">
         <v>44551</v>
       </c>
@@ -6480,7 +6608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="2">
         <v>44550</v>
       </c>
@@ -6503,7 +6631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="2">
         <v>44549</v>
       </c>
@@ -6526,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="2">
         <v>44548</v>
       </c>
@@ -6549,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="2">
         <v>44547</v>
       </c>
@@ -6572,14 +6700,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="2">
         <v>44546</v>
       </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>umd cancels winter commencement bc of covid spike</t>
-        </is>
+      <c r="B269" t="s">
+        <v>13</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -6600,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="2">
         <v>44545</v>
       </c>
@@ -6623,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="2">
         <v>44544</v>
       </c>
@@ -6646,7 +6772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="2">
         <v>44543</v>
       </c>
@@ -6669,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="2">
         <v>44541</v>
       </c>
@@ -6692,7 +6818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="2">
         <v>44540</v>
       </c>
@@ -6715,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="2">
         <v>44539</v>
       </c>
@@ -6738,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="2">
         <v>44537</v>
       </c>
@@ -6761,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="2">
         <v>44533</v>
       </c>
@@ -6784,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>44532</v>
       </c>
@@ -6807,7 +6933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="2">
         <v>44531</v>
       </c>
@@ -6830,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="2">
         <v>44530</v>
       </c>
@@ -6853,7 +6979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="2">
         <v>44525</v>
       </c>
@@ -6876,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="2">
         <v>44522</v>
       </c>
@@ -6899,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="2">
         <v>44518</v>
       </c>
@@ -6922,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="2">
         <v>44516</v>
       </c>
@@ -6945,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="2">
         <v>44508</v>
       </c>
@@ -6968,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="2">
         <v>44507</v>
       </c>
@@ -6991,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="2">
         <v>44503</v>
       </c>
@@ -7014,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="2">
         <v>44498</v>
       </c>
@@ -7037,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" s="2">
         <v>44496</v>
       </c>
@@ -7060,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" s="2">
         <v>44489</v>
       </c>
@@ -7083,7 +7209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" s="2">
         <v>44488</v>
       </c>
@@ -7106,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>44485</v>
       </c>
@@ -7129,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" s="2">
         <v>44482</v>
       </c>
@@ -7152,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" s="2">
         <v>44480</v>
       </c>
@@ -7175,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" s="2">
         <v>44475</v>
       </c>
@@ -7198,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" s="2">
         <v>44463</v>
       </c>
@@ -7221,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" s="2">
         <v>44459</v>
       </c>
@@ -7244,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" s="2">
         <v>44456</v>
       </c>
@@ -7267,7 +7393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" s="2">
         <v>44455</v>
       </c>
@@ -7290,7 +7416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" s="2">
         <v>44447</v>
       </c>
@@ -7313,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" s="2">
         <v>44445</v>
       </c>
@@ -7336,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" s="2">
         <v>44440</v>
       </c>
@@ -7359,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" s="2">
         <v>44439</v>
       </c>
@@ -7382,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" s="2">
         <v>44438</v>
       </c>
@@ -7405,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="2">
         <v>44431</v>
       </c>
@@ -7428,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="2">
         <v>44430</v>
       </c>
@@ -7451,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="2">
         <v>44429</v>
       </c>
@@ -7474,7 +7600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="2">
         <v>44428</v>
       </c>
@@ -7497,14 +7623,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="2">
         <v>44427</v>
       </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>testing guidance + addtl masking guidance</t>
-        </is>
+      <c r="B309" t="s">
+        <v>14</v>
       </c>
       <c r="C309">
         <v>0</v>
@@ -7525,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" s="2">
         <v>44422</v>
       </c>
@@ -7548,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" s="2">
         <v>44418</v>
       </c>
@@ -7571,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" s="2">
         <v>44396</v>
       </c>
@@ -7594,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" s="2">
         <v>44395</v>
       </c>
@@ -7617,14 +7741,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" s="2">
         <v>44393</v>
       </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>fully vaccinated don't have to wear masks or quaratine or get tested regularly</t>
-        </is>
+      <c r="B314" t="s">
+        <v>15</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -7645,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" s="2">
         <v>44391</v>
       </c>
@@ -7668,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="2">
         <v>44389</v>
       </c>
@@ -7691,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="2">
         <v>44363</v>
       </c>
@@ -7714,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="2">
         <v>44343</v>
       </c>
@@ -7737,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" s="2">
         <v>44321</v>
       </c>
@@ -7760,7 +7882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" s="2">
         <v>44298</v>
       </c>
@@ -7783,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" s="2">
         <v>44296</v>
       </c>
@@ -7806,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" s="2">
         <v>44295</v>
       </c>
@@ -7829,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" s="2">
         <v>44293</v>
       </c>
@@ -7852,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" s="2">
         <v>44287</v>
       </c>
@@ -7875,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" s="2">
         <v>44286</v>
       </c>
@@ -7898,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" s="2">
         <v>44278</v>
       </c>
@@ -7921,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" s="2">
         <v>44273</v>
       </c>
@@ -7944,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" s="2">
         <v>44253</v>
       </c>
@@ -7967,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" s="2">
         <v>44250</v>
       </c>
@@ -7990,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" s="2">
         <v>44249</v>
       </c>
@@ -8013,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" s="2">
         <v>44242</v>
       </c>
@@ -8036,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" s="2">
         <v>44234</v>
       </c>
@@ -8059,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" s="2">
         <v>44228</v>
       </c>
@@ -8082,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>44218</v>
       </c>
@@ -8105,7 +8227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" s="2">
         <v>44216</v>
       </c>
@@ -8128,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" s="2">
         <v>44213</v>
       </c>
@@ -8151,7 +8273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" s="2">
         <v>44211</v>
       </c>
@@ -8174,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" s="2">
         <v>44210</v>
       </c>
@@ -8197,7 +8319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" s="2">
         <v>44207</v>
       </c>
@@ -8220,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" s="2">
         <v>44204</v>
       </c>
@@ -8243,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" s="2">
         <v>44203</v>
       </c>
@@ -8266,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" s="2">
         <v>44201</v>
       </c>
@@ -8289,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" s="2">
         <v>44198</v>
       </c>
@@ -8312,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" s="2">
         <v>44197</v>
       </c>
@@ -8335,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" s="2">
         <v>44193</v>
       </c>
@@ -8358,7 +8480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" s="2">
         <v>44187</v>
       </c>
@@ -8381,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" s="2">
         <v>44183</v>
       </c>
@@ -8404,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" s="2">
         <v>44174</v>
       </c>
@@ -8427,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" s="2">
         <v>44168</v>
       </c>
@@ -8450,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" s="2">
         <v>44167</v>
       </c>
@@ -8473,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" s="2">
         <v>44165</v>
       </c>
@@ -8496,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" s="2">
         <v>44160</v>
       </c>
@@ -8519,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" s="2">
         <v>44141</v>
       </c>
@@ -8542,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" s="2">
         <v>44093</v>
       </c>
@@ -8565,7 +8687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" s="2">
         <v>44084</v>
       </c>
@@ -8588,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" s="2">
         <v>44082</v>
       </c>
@@ -8611,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" s="2">
         <v>44080</v>
       </c>
@@ -8634,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" s="2">
         <v>44075</v>
       </c>
@@ -8657,7 +8779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" s="2">
         <v>44046</v>
       </c>
@@ -8680,14 +8802,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" s="2">
         <v>44042</v>
       </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>USM instituted COVID-19 testing mandate</t>
-        </is>
+      <c r="B360" t="s">
+        <v>16</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -8708,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" s="2">
         <v>44040</v>
       </c>
@@ -8731,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" s="2">
         <v>44022</v>
       </c>
@@ -8754,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" s="2">
         <v>44020</v>
       </c>
@@ -8777,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" s="2">
         <v>44014</v>
       </c>
@@ -8800,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" s="2">
         <v>43980</v>
       </c>
@@ -8823,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" s="2">
         <v>43977</v>
       </c>
@@ -8846,7 +8966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" s="2">
         <v>43951</v>
       </c>
@@ -8869,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" s="2">
         <v>44649</v>
       </c>
@@ -8892,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" s="2">
         <v>44645</v>
       </c>
@@ -8915,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" s="2">
         <v>44639</v>
       </c>
@@ -8938,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" s="2">
         <v>44633</v>
       </c>
@@ -8961,7 +9081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" s="2">
         <v>44631</v>
       </c>
@@ -8984,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" s="2">
         <v>44627</v>
       </c>
@@ -9007,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" s="2">
         <v>44626</v>
       </c>
@@ -9030,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" s="2">
         <v>44625</v>
       </c>
@@ -9053,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" s="2">
         <v>44624</v>
       </c>
@@ -9076,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" s="2">
         <v>44622</v>
       </c>
@@ -9099,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" s="2">
         <v>44619</v>
       </c>
@@ -9122,14 +9242,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" s="2">
         <v>44617</v>
       </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>umd lift mask mandate in dining halls, residence halls and athletic events. still required in classrooms, public transportation and patient care areas</t>
-        </is>
+      <c r="B379" t="s">
+        <v>17</v>
       </c>
       <c r="C379">
         <v>0</v>
@@ -9150,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" s="2">
         <v>44615</v>
       </c>
@@ -9173,7 +9291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" s="2">
         <v>44613</v>
       </c>
@@ -9196,7 +9314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" s="2">
         <v>44612</v>
       </c>
@@ -9219,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" s="2">
         <v>44611</v>
       </c>
@@ -9242,7 +9360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" s="2">
         <v>44609</v>
       </c>
@@ -9265,7 +9383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" s="2">
         <v>44606</v>
       </c>
@@ -9288,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" s="2">
         <v>44605</v>
       </c>
@@ -9311,7 +9429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" s="2">
         <v>44598</v>
       </c>
@@ -9334,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" s="2">
         <v>44589</v>
       </c>
@@ -9357,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" s="2">
         <v>44538</v>
       </c>
@@ -9380,7 +9498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" s="2">
         <v>44536</v>
       </c>
@@ -9403,7 +9521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" s="2">
         <v>44535</v>
       </c>
@@ -9426,7 +9544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" s="2">
         <v>44534</v>
       </c>
@@ -9449,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" s="2">
         <v>44529</v>
       </c>
@@ -9472,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" s="2">
         <v>44523</v>
       </c>
@@ -9495,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" s="2">
         <v>44519</v>
       </c>
@@ -9518,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" s="2">
         <v>44517</v>
       </c>
@@ -9541,7 +9659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" s="2">
         <v>44515</v>
       </c>
@@ -9564,7 +9682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" s="2">
         <v>44512</v>
       </c>
@@ -9587,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" s="2">
         <v>44511</v>
       </c>
@@ -9610,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" s="2">
         <v>44510</v>
       </c>
@@ -9633,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" s="2">
         <v>44509</v>
       </c>
@@ -9656,7 +9774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" s="2">
         <v>44506</v>
       </c>
@@ -9679,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" s="2">
         <v>44505</v>
       </c>
@@ -9702,7 +9820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" s="2">
         <v>44504</v>
       </c>
@@ -9725,7 +9843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" s="2">
         <v>44502</v>
       </c>
@@ -9748,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" s="2">
         <v>44501</v>
       </c>
@@ -9771,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" s="2">
         <v>44497</v>
       </c>
@@ -9794,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" s="2">
         <v>44495</v>
       </c>
@@ -9817,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" s="2">
         <v>44494</v>
       </c>
@@ -9840,7 +9958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" s="2">
         <v>44491</v>
       </c>
@@ -9863,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" s="2">
         <v>44490</v>
       </c>
@@ -9886,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" s="2">
         <v>44487</v>
       </c>
@@ -9909,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" s="2">
         <v>44484</v>
       </c>
@@ -9932,7 +10050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" s="2">
         <v>44483</v>
       </c>
@@ -9955,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" s="2">
         <v>44481</v>
       </c>
@@ -9978,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" s="2">
         <v>44479</v>
       </c>
@@ -10001,7 +10119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" s="2">
         <v>44478</v>
       </c>
@@ -10024,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" s="2">
         <v>44477</v>
       </c>
@@ -10047,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" s="2">
         <v>44476</v>
       </c>
@@ -10070,7 +10188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" s="2">
         <v>44474</v>
       </c>
@@ -10093,7 +10211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" s="2">
         <v>44473</v>
       </c>
@@ -10116,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" s="2">
         <v>44472</v>
       </c>
@@ -10139,7 +10257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" s="2">
         <v>44471</v>
       </c>
@@ -10162,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" s="2">
         <v>44470</v>
       </c>
@@ -10185,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" s="2">
         <v>44469</v>
       </c>
@@ -10208,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" s="2">
         <v>44468</v>
       </c>
@@ -10231,7 +10349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" s="2">
         <v>44467</v>
       </c>
@@ -10254,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" s="2">
         <v>44466</v>
       </c>
@@ -10277,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" s="2">
         <v>44465</v>
       </c>
@@ -10300,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" s="2">
         <v>44464</v>
       </c>
@@ -10323,7 +10441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" s="2">
         <v>44462</v>
       </c>
@@ -10346,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" s="2">
         <v>44461</v>
       </c>
@@ -10369,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" s="2">
         <v>44460</v>
       </c>
@@ -10392,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" s="2">
         <v>44458</v>
       </c>
@@ -10415,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" s="2">
         <v>44457</v>
       </c>
@@ -10438,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" s="2">
         <v>44454</v>
       </c>
@@ -10461,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" s="2">
         <v>44453</v>
       </c>
@@ -10484,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" s="2">
         <v>44452</v>
       </c>
@@ -10507,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" s="2">
         <v>44451</v>
       </c>
@@ -10530,7 +10648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" s="2">
         <v>44450</v>
       </c>
@@ -10553,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" s="2">
         <v>44449</v>
       </c>
@@ -10576,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" s="2">
         <v>44448</v>
       </c>
@@ -10599,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" s="2">
         <v>44446</v>
       </c>
@@ -10622,7 +10740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" s="2">
         <v>44444</v>
       </c>
@@ -10645,7 +10763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" s="2">
         <v>44443</v>
       </c>
@@ -10668,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" s="2">
         <v>44442</v>
       </c>
@@ -10691,7 +10809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" s="2">
         <v>44441</v>
       </c>
@@ -10714,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" s="2">
         <v>44437</v>
       </c>
@@ -10737,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" s="2">
         <v>44436</v>
       </c>
@@ -10760,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" s="2">
         <v>44435</v>
       </c>
@@ -10783,7 +10901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" s="2">
         <v>44434</v>
       </c>
@@ -10806,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" s="2">
         <v>44433</v>
       </c>
@@ -10829,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" s="2">
         <v>44432</v>
       </c>
@@ -10852,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" s="2">
         <v>44425</v>
       </c>
@@ -10875,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" s="2">
         <v>44424</v>
       </c>
@@ -10898,7 +11016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" s="2">
         <v>44423</v>
       </c>
@@ -10921,7 +11039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" s="2">
         <v>44421</v>
       </c>
@@ -10944,7 +11062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" s="2">
         <v>44420</v>
       </c>
@@ -10967,7 +11085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" s="2">
         <v>44419</v>
       </c>
@@ -10990,7 +11108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" s="2">
         <v>44417</v>
       </c>
@@ -11013,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" s="2">
         <v>44416</v>
       </c>
@@ -11036,7 +11154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" s="2">
         <v>44415</v>
       </c>
@@ -11059,14 +11177,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" s="2">
         <v>44414</v>
       </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>reinstated indoor mask mandate for everyone</t>
-        </is>
+      <c r="B463" t="s">
+        <v>18</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -11087,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" s="2">
         <v>44413</v>
       </c>
@@ -11110,7 +11226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" s="2">
         <v>44411</v>
       </c>
@@ -11133,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" s="2">
         <v>44410</v>
       </c>
@@ -11156,7 +11272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" s="2">
         <v>44409</v>
       </c>
@@ -11179,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" s="2">
         <v>44407</v>
       </c>
@@ -11202,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" s="2">
         <v>44406</v>
       </c>
@@ -11225,7 +11341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" s="2">
         <v>44404</v>
       </c>
@@ -11248,7 +11364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" s="2">
         <v>44402</v>
       </c>
@@ -11271,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" s="2">
         <v>44398</v>
       </c>
@@ -11294,7 +11410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" s="2">
         <v>44390</v>
       </c>
@@ -11317,7 +11433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" s="2">
         <v>44381</v>
       </c>
@@ -11340,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" s="2">
         <v>44377</v>
       </c>
@@ -11363,7 +11479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" s="2">
         <v>44369</v>
       </c>
@@ -11386,7 +11502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" s="2">
         <v>44368</v>
       </c>
@@ -11409,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" s="2">
         <v>44338</v>
       </c>
@@ -11432,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" s="2">
         <v>44334</v>
       </c>
@@ -11455,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" s="2">
         <v>44331</v>
       </c>
@@ -11478,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" s="2">
         <v>44328</v>
       </c>
@@ -11501,7 +11617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" s="2">
         <v>44319</v>
       </c>
@@ -11524,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" s="2">
         <v>44315</v>
       </c>
@@ -11547,7 +11663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" s="2">
         <v>44314</v>
       </c>
@@ -11570,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" s="2">
         <v>44313</v>
       </c>
@@ -11593,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" s="2">
         <v>44311</v>
       </c>
@@ -11616,7 +11732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" s="2">
         <v>44309</v>
       </c>
@@ -11639,7 +11755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" s="2">
         <v>44308</v>
       </c>
@@ -11662,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" s="2">
         <v>44307</v>
       </c>
@@ -11685,7 +11801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" s="2">
         <v>44306</v>
       </c>
@@ -11708,7 +11824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491" s="2">
         <v>44304</v>
       </c>
@@ -11731,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492" s="2">
         <v>44303</v>
       </c>
@@ -11754,7 +11870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493" s="2">
         <v>44302</v>
       </c>
@@ -11777,7 +11893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494" s="2">
         <v>44301</v>
       </c>
@@ -11800,14 +11916,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495" s="2">
         <v>44300</v>
       </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>UMD outlines tentative "return to normal" for fall, dorms at full capacity, etc</t>
-        </is>
+      <c r="B495" t="s">
+        <v>19</v>
       </c>
       <c r="C495">
         <v>0</v>
@@ -11828,7 +11942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496" s="2">
         <v>44299</v>
       </c>
@@ -11851,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" s="2">
         <v>44297</v>
       </c>
@@ -11874,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" s="2">
         <v>44294</v>
       </c>
@@ -11897,7 +12011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" s="2">
         <v>44292</v>
       </c>
@@ -11920,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" s="2">
         <v>44291</v>
       </c>
@@ -11943,7 +12057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" s="2">
         <v>44290</v>
       </c>
@@ -11966,7 +12080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" s="2">
         <v>44289</v>
       </c>
@@ -11989,7 +12103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" s="2">
         <v>44288</v>
       </c>
@@ -12012,7 +12126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" s="2">
         <v>44285</v>
       </c>
@@ -12035,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" s="2">
         <v>44284</v>
       </c>
@@ -12058,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506" s="2">
         <v>44283</v>
       </c>
@@ -12081,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507" s="2">
         <v>44282</v>
       </c>
@@ -12104,7 +12218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508" s="2">
         <v>44281</v>
       </c>
@@ -12127,7 +12241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509" s="2">
         <v>44280</v>
       </c>
@@ -12150,7 +12264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510" s="2">
         <v>44279</v>
       </c>
@@ -12173,7 +12287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511" s="2">
         <v>44277</v>
       </c>
@@ -12196,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512" s="2">
         <v>44276</v>
       </c>
@@ -12219,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" s="2">
         <v>44275</v>
       </c>
@@ -12242,7 +12356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" s="2">
         <v>44274</v>
       </c>
@@ -12265,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" s="2">
         <v>44272</v>
       </c>
@@ -12288,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" s="2">
         <v>44271</v>
       </c>
@@ -12311,7 +12425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" s="2">
         <v>44270</v>
       </c>
@@ -12334,7 +12448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" s="2">
         <v>44269</v>
       </c>
@@ -12357,7 +12471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" s="2">
         <v>44268</v>
       </c>
@@ -12380,7 +12494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" s="2">
         <v>44267</v>
       </c>
@@ -12403,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" s="2">
         <v>44266</v>
       </c>
@@ -12426,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" s="2">
         <v>44265</v>
       </c>
@@ -12449,7 +12563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" s="2">
         <v>44264</v>
       </c>
@@ -12472,7 +12586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" s="2">
         <v>44263</v>
       </c>
@@ -12495,7 +12609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" s="2">
         <v>44262</v>
       </c>
@@ -12518,7 +12632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" s="2">
         <v>44261</v>
       </c>
@@ -12541,7 +12655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" s="2">
         <v>44260</v>
       </c>
@@ -12564,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" s="2">
         <v>44259</v>
       </c>
@@ -12587,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" s="2">
         <v>44258</v>
       </c>
@@ -12610,7 +12724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" s="2">
         <v>44257</v>
       </c>
@@ -12633,7 +12747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" s="2">
         <v>44256</v>
       </c>
@@ -12656,7 +12770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" s="2">
         <v>44255</v>
       </c>
@@ -12679,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" s="2">
         <v>44254</v>
       </c>
@@ -12702,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" s="2">
         <v>44252</v>
       </c>
@@ -12725,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" s="2">
         <v>44251</v>
       </c>
@@ -12748,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" s="2">
         <v>44248</v>
       </c>
@@ -12771,14 +12885,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" s="2">
         <v>44247</v>
       </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>UMD classes online, students asked to sequest for a week</t>
-        </is>
+      <c r="B537" t="s">
+        <v>20</v>
       </c>
       <c r="C537">
         <v>0</v>
@@ -12799,7 +12911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" s="2">
         <v>44246</v>
       </c>
@@ -12822,14 +12934,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" s="2">
         <v>44245</v>
       </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>UMD limits all student gatherings to 5 people after spike</t>
-        </is>
+      <c r="B539" t="s">
+        <v>21</v>
       </c>
       <c r="C539">
         <v>0</v>
@@ -12850,7 +12960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" s="2">
         <v>44244</v>
       </c>
@@ -12873,7 +12983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" s="2">
         <v>44243</v>
       </c>
@@ -12896,7 +13006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" s="2">
         <v>44241</v>
       </c>
@@ -12919,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" s="2">
         <v>44240</v>
       </c>
@@ -12942,7 +13052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" s="2">
         <v>44239</v>
       </c>
@@ -12965,7 +13075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545" s="2">
         <v>44238</v>
       </c>
@@ -12988,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546" s="2">
         <v>44237</v>
       </c>
@@ -13011,7 +13121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547" s="2">
         <v>44236</v>
       </c>
@@ -13034,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548" s="2">
         <v>44235</v>
       </c>
@@ -13057,7 +13167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549" s="2">
         <v>44233</v>
       </c>
@@ -13080,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550" s="2">
         <v>44232</v>
       </c>
@@ -13103,7 +13213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551" s="2">
         <v>44231</v>
       </c>
@@ -13126,7 +13236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552" s="2">
         <v>44230</v>
       </c>
@@ -13149,7 +13259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553" s="2">
         <v>44229</v>
       </c>
@@ -13172,7 +13282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554" s="2">
         <v>44227</v>
       </c>
@@ -13195,7 +13305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555" s="2">
         <v>44226</v>
       </c>
@@ -13218,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A556" s="2">
         <v>44225</v>
       </c>
@@ -13241,7 +13351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A557" s="2">
         <v>44224</v>
       </c>
@@ -13264,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A558" s="2">
         <v>44223</v>
       </c>
@@ -13287,7 +13397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A559" s="2">
         <v>44222</v>
       </c>
@@ -13310,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A560" s="2">
         <v>44221</v>
       </c>
@@ -13333,7 +13443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A561" s="2">
         <v>44220</v>
       </c>
@@ -13356,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A562" s="2">
         <v>44219</v>
       </c>
@@ -13379,7 +13489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A563" s="2">
         <v>44217</v>
       </c>
@@ -13402,7 +13512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A564" s="2">
         <v>44215</v>
       </c>
@@ -13425,7 +13535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A565" s="2">
         <v>44214</v>
       </c>
@@ -13448,7 +13558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A566" s="2">
         <v>44212</v>
       </c>
@@ -13471,7 +13581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A567" s="2">
         <v>44209</v>
       </c>
@@ -13494,7 +13604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A568" s="2">
         <v>44208</v>
       </c>
@@ -13517,7 +13627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A569" s="2">
         <v>44206</v>
       </c>
@@ -13540,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A570" s="2">
         <v>44205</v>
       </c>
@@ -13563,7 +13673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A571" s="2">
         <v>44202</v>
       </c>
@@ -13586,7 +13696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A572" s="2">
         <v>44200</v>
       </c>
@@ -13609,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A573" s="2">
         <v>44199</v>
       </c>
@@ -13632,7 +13742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A574" s="2">
         <v>44196</v>
       </c>
@@ -13655,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A575" s="2">
         <v>44195</v>
       </c>
@@ -13678,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A576" s="2">
         <v>44194</v>
       </c>
@@ -13701,7 +13811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A577" s="2">
         <v>44192</v>
       </c>
@@ -13724,7 +13834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A578" s="2">
         <v>44191</v>
       </c>
@@ -13747,7 +13857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A579" s="2">
         <v>44190</v>
       </c>
@@ -13770,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A580" s="2">
         <v>44189</v>
       </c>
@@ -13793,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A581" s="2">
         <v>44188</v>
       </c>
@@ -13816,7 +13926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A582" s="2">
         <v>44186</v>
       </c>
@@ -13839,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A583" s="2">
         <v>44185</v>
       </c>
@@ -13862,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A584" s="2">
         <v>44184</v>
       </c>
@@ -13885,7 +13995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A585" s="2">
         <v>44182</v>
       </c>
@@ -13908,7 +14018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="586">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A586" s="2">
         <v>44181</v>
       </c>
@@ -13931,7 +14041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="587">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A587" s="2">
         <v>44180</v>
       </c>
@@ -13954,7 +14064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A588" s="2">
         <v>44179</v>
       </c>
@@ -13977,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A589" s="2">
         <v>44178</v>
       </c>
@@ -14000,7 +14110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A590" s="2">
         <v>44177</v>
       </c>
@@ -14023,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A591" s="2">
         <v>44176</v>
       </c>
@@ -14046,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A592" s="2">
         <v>44175</v>
       </c>
@@ -14069,14 +14179,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A593" s="2">
         <v>44173</v>
       </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>UMD announces normal spring break for 2021, 25% of classes in person</t>
-        </is>
+      <c r="B593" t="s">
+        <v>22</v>
       </c>
       <c r="C593">
         <v>0</v>
@@ -14097,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A594" s="2">
         <v>44172</v>
       </c>
@@ -14120,7 +14228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A595" s="2">
         <v>44171</v>
       </c>
@@ -14143,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A596" s="2">
         <v>44170</v>
       </c>
@@ -14166,7 +14274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A597" s="2">
         <v>44169</v>
       </c>
@@ -14189,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A598" s="2">
         <v>44166</v>
       </c>
@@ -14212,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A599" s="2">
         <v>44164</v>
       </c>
@@ -14235,7 +14343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A600" s="2">
         <v>44163</v>
       </c>
@@ -14258,7 +14366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A601" s="2">
         <v>44162</v>
       </c>
@@ -14281,7 +14389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="602">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A602" s="2">
         <v>44159</v>
       </c>
@@ -14304,7 +14412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A603" s="2">
         <v>44158</v>
       </c>
@@ -14327,7 +14435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A604" s="2">
         <v>44157</v>
       </c>
@@ -14350,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A605" s="2">
         <v>44156</v>
       </c>
@@ -14373,7 +14481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A606" s="2">
         <v>44155</v>
       </c>
@@ -14396,7 +14504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A607" s="2">
         <v>44154</v>
       </c>
@@ -14419,7 +14527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A608" s="2">
         <v>44153</v>
       </c>
@@ -14442,7 +14550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A609" s="2">
         <v>44152</v>
       </c>
@@ -14465,7 +14573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A610" s="2">
         <v>44151</v>
       </c>
@@ -14488,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A611" s="2">
         <v>44150</v>
       </c>
@@ -14511,7 +14619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A612" s="2">
         <v>44149</v>
       </c>
@@ -14534,14 +14642,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A613" s="2">
         <v>44148</v>
       </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>UMD moves undergraduate classes online after Nov 16</t>
-        </is>
+      <c r="B613" t="s">
+        <v>23</v>
       </c>
       <c r="C613">
         <v>0</v>
@@ -14562,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A614" s="2">
         <v>44147</v>
       </c>
@@ -14585,7 +14691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="615">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A615" s="2">
         <v>44146</v>
       </c>
@@ -14608,14 +14714,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A616" s="2">
         <v>44145</v>
       </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>UMD closes isolation and quarantine housing before semester ends</t>
-        </is>
+      <c r="B616" t="s">
+        <v>24</v>
       </c>
       <c r="C616">
         <v>0</v>
@@ -14636,7 +14740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A617" s="2">
         <v>44144</v>
       </c>
@@ -14659,7 +14763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A618" s="2">
         <v>44143</v>
       </c>
@@ -14682,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A619" s="2">
         <v>44142</v>
       </c>
@@ -14705,14 +14809,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A620" s="2">
         <v>44140</v>
       </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>UMD moves all classes online after Thanksgiving break</t>
-        </is>
+      <c r="B620" t="s">
+        <v>25</v>
       </c>
       <c r="C620">
         <v>0</v>
@@ -14733,7 +14835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A621" s="2">
         <v>44139</v>
       </c>
@@ -14756,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A622" s="2">
         <v>44138</v>
       </c>
@@ -14779,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A623" s="2">
         <v>44137</v>
       </c>
@@ -14802,7 +14904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A624" s="2">
         <v>44136</v>
       </c>
@@ -14825,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A625" s="2">
         <v>44135</v>
       </c>
@@ -14848,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A626" s="2">
         <v>44134</v>
       </c>
@@ -14871,7 +14973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A627" s="2">
         <v>44133</v>
       </c>
@@ -14894,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A628" s="2">
         <v>44132</v>
       </c>
@@ -14917,7 +15019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A629" s="2">
         <v>44131</v>
       </c>
@@ -14940,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A630" s="2">
         <v>44130</v>
       </c>
@@ -14963,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A631" s="2">
         <v>44129</v>
       </c>
@@ -14986,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A632" s="2">
         <v>44128</v>
       </c>
@@ -15009,7 +15111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A633" s="2">
         <v>44127</v>
       </c>
@@ -15032,7 +15134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A634" s="2">
         <v>44126</v>
       </c>
@@ -15055,7 +15157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A635" s="2">
         <v>44125</v>
       </c>
@@ -15078,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A636" s="2">
         <v>44124</v>
       </c>
@@ -15101,7 +15203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A637" s="2">
         <v>44123</v>
       </c>
@@ -15124,7 +15226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A638" s="2">
         <v>44122</v>
       </c>
@@ -15147,7 +15249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A639" s="2">
         <v>44121</v>
       </c>
@@ -15170,7 +15272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A640" s="2">
         <v>44120</v>
       </c>
@@ -15193,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A641" s="2">
         <v>44119</v>
       </c>
@@ -15216,7 +15318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A642" s="2">
         <v>44118</v>
       </c>
@@ -15239,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A643" s="2">
         <v>44117</v>
       </c>
@@ -15262,7 +15364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A644" s="2">
         <v>44116</v>
       </c>
@@ -15285,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A645" s="2">
         <v>44115</v>
       </c>
@@ -15308,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A646" s="2">
         <v>44114</v>
       </c>
@@ -15331,7 +15433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A647" s="2">
         <v>44113</v>
       </c>
@@ -15354,7 +15456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A648" s="2">
         <v>44112</v>
       </c>
@@ -15377,7 +15479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A649" s="2">
         <v>44111</v>
       </c>
@@ -15400,7 +15502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A650" s="2">
         <v>44110</v>
       </c>
@@ -15423,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A651" s="2">
         <v>44109</v>
       </c>
@@ -15446,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A652" s="2">
         <v>44108</v>
       </c>
@@ -15469,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A653" s="2">
         <v>44107</v>
       </c>
@@ -15492,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A654" s="2">
         <v>44106</v>
       </c>
@@ -15515,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A655" s="2">
         <v>44105</v>
       </c>
@@ -15538,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A656" s="2">
         <v>44104</v>
       </c>
@@ -15561,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A657" s="2">
         <v>44103</v>
       </c>
@@ -15584,7 +15686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A658" s="2">
         <v>44102</v>
       </c>
@@ -15607,7 +15709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A659" s="2">
         <v>44101</v>
       </c>
@@ -15630,7 +15732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A660" s="2">
         <v>44100</v>
       </c>
@@ -15653,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A661" s="2">
         <v>44099</v>
       </c>
@@ -15676,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A662" s="2">
         <v>44098</v>
       </c>
@@ -15699,7 +15801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A663" s="2">
         <v>44097</v>
       </c>
@@ -15722,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A664" s="2">
         <v>44096</v>
       </c>
@@ -15745,7 +15847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A665" s="2">
         <v>44095</v>
       </c>
@@ -15768,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A666" s="2">
         <v>44094</v>
       </c>
@@ -15791,14 +15893,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A667" s="2">
         <v>44092</v>
       </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>Students in denton hall advised to restrict activity</t>
-        </is>
+      <c r="B667" t="s">
+        <v>26</v>
       </c>
       <c r="C667">
         <v>0</v>
@@ -15819,7 +15919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A668" s="2">
         <v>44091</v>
       </c>
@@ -15842,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A669" s="2">
         <v>44090</v>
       </c>
@@ -15865,14 +15965,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A670" s="2">
         <v>44089</v>
       </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>University holds "mass testing" for Sept 15-18, requires all students returning to campus to test</t>
-        </is>
+      <c r="B670" t="s">
+        <v>27</v>
       </c>
       <c r="C670">
         <v>0</v>
@@ -15893,7 +15991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A671" s="2">
         <v>44088</v>
       </c>
@@ -15916,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A672" s="2">
         <v>44087</v>
       </c>
@@ -15939,7 +16037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A673" s="2">
         <v>44086</v>
       </c>
@@ -15962,7 +16060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A674" s="2">
         <v>44085</v>
       </c>
@@ -15985,7 +16083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A675" s="2">
         <v>44083</v>
       </c>
@@ -16008,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A676" s="2">
         <v>44081</v>
       </c>
@@ -16031,7 +16129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A677" s="2">
         <v>44079</v>
       </c>
@@ -16054,7 +16152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A678" s="2">
         <v>44078</v>
       </c>
@@ -16077,14 +16175,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A679" s="2">
         <v>44077</v>
       </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>Several UMD students in Cumberland move to quarantine</t>
-        </is>
+      <c r="B679" t="s">
+        <v>28</v>
       </c>
       <c r="C679">
         <v>0</v>
@@ -16105,7 +16201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A680" s="2">
         <v>44076</v>
       </c>
@@ -16128,7 +16224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A681" s="2">
         <v>44074</v>
       </c>
@@ -16151,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A682" s="2">
         <v>44073</v>
       </c>
@@ -16174,7 +16270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="683">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A683" s="2">
         <v>44072</v>
       </c>
@@ -16197,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A684" s="2">
         <v>44071</v>
       </c>
@@ -16220,7 +16316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A685" s="2">
         <v>44069</v>
       </c>
@@ -16243,7 +16339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A686" s="2">
         <v>44068</v>
       </c>
@@ -16266,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A687" s="2">
         <v>44067</v>
       </c>
@@ -16289,7 +16385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A688" s="2">
         <v>44066</v>
       </c>
@@ -16312,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A689" s="2">
         <v>44065</v>
       </c>
@@ -16335,7 +16431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A690" s="2">
         <v>44064</v>
       </c>
@@ -16358,14 +16454,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A691" s="2">
         <v>44063</v>
       </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>university says it will announce "early contact identification" steps</t>
-        </is>
+      <c r="B691" t="s">
+        <v>29</v>
       </c>
       <c r="C691">
         <v>0</v>
@@ -16386,14 +16480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A692" s="2">
         <v>44062</v>
       </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>UMD officially launches campus dashboard</t>
-        </is>
+      <c r="B692" t="s">
+        <v>30</v>
       </c>
       <c r="C692">
         <v>0</v>
@@ -16414,7 +16506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A693" s="2">
         <v>44061</v>
       </c>
@@ -16437,7 +16529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A694" s="2">
         <v>44060</v>
       </c>
@@ -16460,14 +16552,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A695" s="2">
         <v>44053</v>
       </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>UMD delays undergraduate in-person instruction until Sept. 14, 2020</t>
-        </is>
+      <c r="B695" t="s">
+        <v>31</v>
       </c>
       <c r="C695">
         <v>0</v>
@@ -16488,7 +16578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A696" s="2">
         <v>44051</v>
       </c>
@@ -16511,7 +16601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A697" s="2">
         <v>44050</v>
       </c>
@@ -16534,7 +16624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="698">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A698" s="2">
         <v>44047</v>
       </c>
@@ -16557,7 +16647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A699" s="2">
         <v>44044</v>
       </c>
@@ -16580,7 +16670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A700" s="2">
         <v>44039</v>
       </c>
@@ -16603,7 +16693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A701" s="2">
         <v>44038</v>
       </c>
@@ -16626,7 +16716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="702">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A702" s="2">
         <v>44036</v>
       </c>
@@ -16649,7 +16739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A703" s="2">
         <v>44035</v>
       </c>
@@ -16672,7 +16762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A704" s="2">
         <v>44033</v>
       </c>
@@ -16695,7 +16785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A705" s="2">
         <v>44031</v>
       </c>
@@ -16718,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A706" s="2">
         <v>44029</v>
       </c>
@@ -16741,7 +16831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A707" s="2">
         <v>44028</v>
       </c>
@@ -16764,7 +16854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A708" s="2">
         <v>44027</v>
       </c>
@@ -16787,7 +16877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A709" s="2">
         <v>44026</v>
       </c>
@@ -16810,7 +16900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A710" s="2">
         <v>44013</v>
       </c>
@@ -16833,7 +16923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A711" s="2">
         <v>44008</v>
       </c>
@@ -16856,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A712" s="2">
         <v>44002</v>
       </c>
@@ -16879,7 +16969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A713" s="2">
         <v>43966</v>
       </c>
